--- a/sputnik/personal/uch/uch289.xlsx
+++ b/sputnik/personal/uch/uch289.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4506"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19440" windowHeight="9780"/>
@@ -11,12 +11,12 @@
     <sheet name="Лист2" sheetId="2" r:id="rId2"/>
     <sheet name="Лист3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>Оплачено</t>
   </si>
@@ -49,16 +49,19 @@
   </si>
   <si>
     <t>Начислен взнос 2019/2020 (с 01.05.2019 по 30.04.2020)</t>
+  </si>
+  <si>
+    <t>Начислен членский взнос 2020/2021 (с 01.05.2020 по 30.04.2021)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
-    <numFmt numFmtId="172" formatCode="#,##0.00\ _₽"/>
+    <numFmt numFmtId="164" formatCode="#,##0.00\ _₽"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -166,7 +169,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -187,26 +190,27 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="172" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="172" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -267,7 +271,7 @@
     </a:clrScheme>
     <a:fontScheme name="Стандартная">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -299,10 +303,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -334,7 +337,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Стандартная">
@@ -510,17 +512,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:A10"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15.75"/>
   <cols>
     <col min="1" max="1" width="12.42578125" style="1" customWidth="1"/>
     <col min="2" max="2" width="71.7109375" style="1" customWidth="1"/>
@@ -529,12 +531,12 @@
     <col min="5" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="28.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="2" spans="1:4" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="11" t="s">
+    <row r="1" spans="1:4" ht="28.5" customHeight="1"/>
+    <row r="2" spans="1:4" ht="27" customHeight="1">
+      <c r="A2" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="12"/>
+      <c r="B2" s="15"/>
       <c r="C2" s="2" t="s">
         <v>1</v>
       </c>
@@ -542,8 +544,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="13">
+    <row r="3" spans="1:4" ht="18.75" customHeight="1">
+      <c r="A3" s="11">
         <v>43221</v>
       </c>
       <c r="B3" s="5" t="s">
@@ -554,8 +556,8 @@
       </c>
       <c r="D3" s="7"/>
     </row>
-    <row r="4" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="13">
+    <row r="4" spans="1:4" ht="18.75" customHeight="1">
+      <c r="A4" s="11">
         <v>43221</v>
       </c>
       <c r="B4" s="5" t="s">
@@ -566,8 +568,8 @@
       </c>
       <c r="D4" s="3"/>
     </row>
-    <row r="5" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="13">
+    <row r="5" spans="1:4" ht="18.75" customHeight="1">
+      <c r="A5" s="11">
         <v>43221</v>
       </c>
       <c r="B5" s="5" t="s">
@@ -578,8 +580,8 @@
       </c>
       <c r="D5" s="3"/>
     </row>
-    <row r="6" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="13">
+    <row r="6" spans="1:4" ht="18" customHeight="1">
+      <c r="A6" s="11">
         <v>43221</v>
       </c>
       <c r="B6" s="4" t="s">
@@ -590,8 +592,8 @@
       </c>
       <c r="D6" s="6"/>
     </row>
-    <row r="7" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="13">
+    <row r="7" spans="1:4" ht="18" customHeight="1">
+      <c r="A7" s="11">
         <v>43221</v>
       </c>
       <c r="B7" s="5" t="s">
@@ -602,8 +604,8 @@
       </c>
       <c r="D7" s="6"/>
     </row>
-    <row r="8" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="14">
+    <row r="8" spans="1:4" ht="18" customHeight="1">
+      <c r="A8" s="12">
         <v>43380</v>
       </c>
       <c r="B8" s="4" t="s">
@@ -614,8 +616,8 @@
         <v>2186.11</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="15">
+    <row r="9" spans="1:4">
+      <c r="A9" s="13">
         <v>43466</v>
       </c>
       <c r="B9" s="10" t="s">
@@ -626,8 +628,8 @@
       </c>
       <c r="D9" s="10"/>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="15">
+    <row r="10" spans="1:4">
+      <c r="A10" s="13">
         <v>43586</v>
       </c>
       <c r="B10" s="10" t="s">
@@ -638,19 +640,25 @@
       </c>
       <c r="D10" s="10"/>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="10"/>
-      <c r="B11" s="10"/>
-      <c r="C11" s="10"/>
+    <row r="11" spans="1:4">
+      <c r="A11" s="16">
+        <v>43952</v>
+      </c>
+      <c r="B11" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="C11" s="10">
+        <v>13213.64</v>
+      </c>
       <c r="D11" s="10"/>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4">
       <c r="A12" s="10"/>
       <c r="B12" s="10"/>
       <c r="C12" s="10"/>
       <c r="D12" s="10"/>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4">
       <c r="A13" s="10"/>
       <c r="B13" s="10"/>
       <c r="C13" s="10"/>
@@ -667,12 +675,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -681,12 +689,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/sputnik/personal/uch/uch289.xlsx
+++ b/sputnik/personal/uch/uch289.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4506"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19440" windowHeight="9780"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>Оплачено</t>
   </si>
@@ -52,16 +52,22 @@
   </si>
   <si>
     <t>Начислен членский взнос 2020/2021 (с 01.05.2020 по 30.04.2021)</t>
+  </si>
+  <si>
+    <t>Начислен членский взнос 2021/2022 (с 01.05.2021 по 30.04.2022)</t>
+  </si>
+  <si>
+    <t>Начислена компенсация арендной платы за зем.уч. с 01.01.21 по 31.12.21</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="#,##0.00\ _₽"/>
   </numFmts>
-  <fonts count="2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -206,11 +212,11 @@
     <xf numFmtId="14" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -271,7 +277,7 @@
     </a:clrScheme>
     <a:fontScheme name="Стандартная">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -303,9 +309,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -337,6 +344,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Стандартная">
@@ -512,17 +520,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12.42578125" style="1" customWidth="1"/>
     <col min="2" max="2" width="71.7109375" style="1" customWidth="1"/>
@@ -531,12 +539,12 @@
     <col min="5" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="28.5" customHeight="1"/>
-    <row r="2" spans="1:4" ht="27" customHeight="1">
-      <c r="A2" s="14" t="s">
+    <row r="1" spans="1:4" ht="28.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="1:4" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="15"/>
+      <c r="B2" s="16"/>
       <c r="C2" s="2" t="s">
         <v>1</v>
       </c>
@@ -544,7 +552,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="18.75" customHeight="1">
+    <row r="3" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="11">
         <v>43221</v>
       </c>
@@ -556,7 +564,7 @@
       </c>
       <c r="D3" s="7"/>
     </row>
-    <row r="4" spans="1:4" ht="18.75" customHeight="1">
+    <row r="4" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="11">
         <v>43221</v>
       </c>
@@ -568,7 +576,7 @@
       </c>
       <c r="D4" s="3"/>
     </row>
-    <row r="5" spans="1:4" ht="18.75" customHeight="1">
+    <row r="5" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="11">
         <v>43221</v>
       </c>
@@ -580,7 +588,7 @@
       </c>
       <c r="D5" s="3"/>
     </row>
-    <row r="6" spans="1:4" ht="18" customHeight="1">
+    <row r="6" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="11">
         <v>43221</v>
       </c>
@@ -592,7 +600,7 @@
       </c>
       <c r="D6" s="6"/>
     </row>
-    <row r="7" spans="1:4" ht="18" customHeight="1">
+    <row r="7" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="11">
         <v>43221</v>
       </c>
@@ -604,7 +612,7 @@
       </c>
       <c r="D7" s="6"/>
     </row>
-    <row r="8" spans="1:4" ht="18" customHeight="1">
+    <row r="8" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="12">
         <v>43380</v>
       </c>
@@ -616,7 +624,7 @@
         <v>2186.11</v>
       </c>
     </row>
-    <row r="9" spans="1:4">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="13">
         <v>43466</v>
       </c>
@@ -628,7 +636,7 @@
       </c>
       <c r="D9" s="10"/>
     </row>
-    <row r="10" spans="1:4">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="13">
         <v>43586</v>
       </c>
@@ -640,8 +648,8 @@
       </c>
       <c r="D10" s="10"/>
     </row>
-    <row r="11" spans="1:4">
-      <c r="A11" s="16">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="14">
         <v>43952</v>
       </c>
       <c r="B11" s="10" t="s">
@@ -652,16 +660,28 @@
       </c>
       <c r="D11" s="10"/>
     </row>
-    <row r="12" spans="1:4">
-      <c r="A12" s="10"/>
-      <c r="B12" s="10"/>
-      <c r="C12" s="10"/>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="14">
+        <v>44317</v>
+      </c>
+      <c r="B12" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="C12" s="10">
+        <v>13569.94</v>
+      </c>
       <c r="D12" s="10"/>
     </row>
-    <row r="13" spans="1:4">
-      <c r="A13" s="10"/>
-      <c r="B13" s="10"/>
-      <c r="C13" s="10"/>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="14">
+        <v>44197</v>
+      </c>
+      <c r="B13" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="C13" s="10">
+        <v>502.08</v>
+      </c>
       <c r="D13" s="10"/>
     </row>
   </sheetData>
@@ -675,12 +695,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -689,12 +709,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/sputnik/personal/uch/uch289.xlsx
+++ b/sputnik/personal/uch/uch289.xlsx
@@ -11,12 +11,12 @@
     <sheet name="Лист2" sheetId="2" r:id="rId2"/>
     <sheet name="Лист3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="14">
   <si>
     <t>Оплачено</t>
   </si>
@@ -84,7 +84,7 @@
       <charset val="204"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -94,6 +94,24 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -175,7 +193,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -209,14 +227,21 @@
     <xf numFmtId="14" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="14" fontId="1" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="1" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="1" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="1" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -524,10 +549,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:D13"/>
+  <dimension ref="A1:D16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="A13" sqref="A13:D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -625,64 +650,92 @@
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="13">
+      <c r="A9" s="17">
         <v>43466</v>
       </c>
-      <c r="B9" s="10" t="s">
+      <c r="B9" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="C9" s="10">
+      <c r="C9" s="18">
         <v>977.28</v>
       </c>
-      <c r="D9" s="10"/>
+      <c r="D9" s="18"/>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="13">
+      <c r="A10" s="17">
         <v>43586</v>
       </c>
-      <c r="B10" s="10" t="s">
+      <c r="B10" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="C10" s="10">
+      <c r="C10" s="18">
         <v>11309.98</v>
       </c>
-      <c r="D10" s="10"/>
+      <c r="D10" s="18"/>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="14">
+      <c r="A11" s="19">
+        <v>43831</v>
+      </c>
+      <c r="B11" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="C11" s="20">
+        <v>488.64</v>
+      </c>
+      <c r="D11" s="20"/>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="19">
         <v>43952</v>
       </c>
-      <c r="B11" s="10" t="s">
+      <c r="B12" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="C11" s="10">
-        <v>13213.64</v>
-      </c>
-      <c r="D11" s="10"/>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="14">
+      <c r="C12" s="21">
+        <v>12725</v>
+      </c>
+      <c r="D12" s="20"/>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="22">
+        <v>44197</v>
+      </c>
+      <c r="B13" s="23" t="s">
+        <v>13</v>
+      </c>
+      <c r="C13" s="23">
+        <v>502.08</v>
+      </c>
+      <c r="D13" s="23"/>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="22">
         <v>44317</v>
       </c>
-      <c r="B12" s="10" t="s">
+      <c r="B14" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="C12" s="10">
+      <c r="C14" s="23">
         <v>13569.94</v>
       </c>
-      <c r="D12" s="10"/>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="14">
-        <v>44197</v>
-      </c>
-      <c r="B13" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="C13" s="10">
-        <v>502.08</v>
-      </c>
-      <c r="D13" s="10"/>
+      <c r="D14" s="23"/>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="13"/>
+      <c r="B15" s="10"/>
+      <c r="C15" s="10"/>
+      <c r="D15" s="10"/>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C16" s="14">
+        <f>SUM(C3:C15)</f>
+        <v>63170.16</v>
+      </c>
+      <c r="D16" s="14">
+        <f>SUM(D3:D15)</f>
+        <v>2186.11</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -690,7 +743,7 @@
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.31496062992125984" right="0.31496062992125984" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup paperSize="9" scale="85" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/sputnik/personal/uch/uch289.xlsx
+++ b/sputnik/personal/uch/uch289.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="15">
   <si>
     <t>Оплачено</t>
   </si>
@@ -58,6 +58,9 @@
   </si>
   <si>
     <t>Начислена компенсация арендной платы за зем.уч. с 01.01.21 по 31.12.21</t>
+  </si>
+  <si>
+    <t>Оплата  членского взноса 2018/2019г.</t>
   </si>
 </sst>
 </file>
@@ -84,7 +87,7 @@
       <charset val="204"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -115,6 +118,18 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="6">
     <border>
@@ -193,7 +208,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -202,9 +217,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -214,25 +226,13 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="14" fontId="1" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -242,6 +242,44 @@
     <xf numFmtId="2" fontId="1" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="1" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="14" fontId="1" fillId="6" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="6" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="6" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="6" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="6" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="1" fillId="7" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="7" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="7" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="1" fillId="7" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -549,10 +587,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:D16"/>
+  <dimension ref="A1:D19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13:D14"/>
+      <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -566,10 +604,10 @@
   <sheetData>
     <row r="1" spans="1:4" ht="28.5" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="1:4" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="15" t="s">
+      <c r="A2" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="16"/>
+      <c r="B2" s="18"/>
       <c r="C2" s="2" t="s">
         <v>1</v>
       </c>
@@ -578,163 +616,205 @@
       </c>
     </row>
     <row r="3" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="11">
+      <c r="A3" s="19">
         <v>43221</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="8">
+      <c r="C3" s="21">
         <v>10210.540000000001</v>
       </c>
-      <c r="D3" s="7"/>
+      <c r="D3" s="6"/>
     </row>
     <row r="4" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="11">
+      <c r="A4" s="8">
         <v>43221</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="9">
+      <c r="C4" s="7">
         <v>580.26</v>
       </c>
       <c r="D4" s="3"/>
     </row>
     <row r="5" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="11">
+      <c r="A5" s="8">
         <v>43221</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="B5" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="9">
+      <c r="C5" s="7">
         <v>570.08000000000004</v>
       </c>
       <c r="D5" s="3"/>
     </row>
     <row r="6" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="11">
+      <c r="A6" s="27">
         <v>43221</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="B6" s="28" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="6">
+      <c r="C6" s="29">
         <v>11472.86</v>
       </c>
-      <c r="D6" s="6"/>
+      <c r="D6" s="5"/>
     </row>
     <row r="7" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="11">
+      <c r="A7" s="8">
         <v>43221</v>
       </c>
-      <c r="B7" s="5" t="s">
+      <c r="B7" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="6">
+      <c r="C7" s="5">
         <v>763.5</v>
       </c>
-      <c r="D7" s="6"/>
+      <c r="D7" s="5"/>
     </row>
     <row r="8" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="12">
+      <c r="A8" s="22">
         <v>43380</v>
       </c>
-      <c r="B8" s="4" t="s">
+      <c r="B8" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="C8" s="6"/>
-      <c r="D8" s="6">
+      <c r="C8" s="24"/>
+      <c r="D8" s="24">
         <v>2186.11</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="17">
+      <c r="A9" s="10">
         <v>43466</v>
       </c>
-      <c r="B9" s="18" t="s">
+      <c r="B9" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="C9" s="18">
+      <c r="C9" s="11">
         <v>977.28</v>
       </c>
-      <c r="D9" s="18"/>
+      <c r="D9" s="11"/>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="17">
+      <c r="A10" s="10">
         <v>43586</v>
       </c>
-      <c r="B10" s="18" t="s">
+      <c r="B10" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="C10" s="18">
+      <c r="C10" s="11">
         <v>11309.98</v>
       </c>
-      <c r="D10" s="18"/>
+      <c r="D10" s="11"/>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="19">
+      <c r="A11" s="12">
         <v>43831</v>
       </c>
-      <c r="B11" s="20" t="s">
+      <c r="B11" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="C11" s="20">
+      <c r="C11" s="13">
         <v>488.64</v>
       </c>
-      <c r="D11" s="20"/>
+      <c r="D11" s="13"/>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="19">
+      <c r="A12" s="12">
         <v>43952</v>
       </c>
-      <c r="B12" s="20" t="s">
+      <c r="B12" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="C12" s="21">
+      <c r="C12" s="14">
         <v>12725</v>
       </c>
-      <c r="D12" s="20"/>
+      <c r="D12" s="13"/>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="22">
+      <c r="A13" s="15">
         <v>44197</v>
       </c>
-      <c r="B13" s="23" t="s">
+      <c r="B13" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="C13" s="23">
+      <c r="C13" s="16">
         <v>502.08</v>
       </c>
-      <c r="D13" s="23"/>
+      <c r="D13" s="16"/>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="22">
+      <c r="A14" s="15">
         <v>44317</v>
       </c>
-      <c r="B14" s="23" t="s">
+      <c r="B14" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="C14" s="23">
+      <c r="C14" s="16">
         <v>13569.94</v>
       </c>
-      <c r="D14" s="23"/>
+      <c r="D14" s="16"/>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="13"/>
-      <c r="B15" s="10"/>
-      <c r="C15" s="10"/>
-      <c r="D15" s="10"/>
+      <c r="A15" s="25">
+        <v>44470</v>
+      </c>
+      <c r="B15" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="C15" s="26"/>
+      <c r="D15" s="26">
+        <v>5757.69</v>
+      </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C16" s="14">
-        <f>SUM(C3:C15)</f>
+      <c r="A16" s="25">
+        <v>44490</v>
+      </c>
+      <c r="B16" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="C16" s="26"/>
+      <c r="D16" s="26">
+        <v>357.7</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="25">
+        <v>44497</v>
+      </c>
+      <c r="B17" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="C17" s="26"/>
+      <c r="D17" s="26">
+        <v>1909.04</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="30">
+        <v>44497</v>
+      </c>
+      <c r="B18" s="31" t="s">
+        <v>14</v>
+      </c>
+      <c r="C18" s="32"/>
+      <c r="D18" s="32">
+        <v>3848.65</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C19" s="9">
+        <f>SUM(C3:C18)</f>
         <v>63170.16</v>
       </c>
-      <c r="D16" s="14">
-        <f>SUM(D3:D15)</f>
-        <v>2186.11</v>
+      <c r="D19" s="9">
+        <f>SUM(D3:D18)</f>
+        <v>14059.19</v>
       </c>
     </row>
   </sheetData>

--- a/sputnik/personal/uch/uch289.xlsx
+++ b/sputnik/personal/uch/uch289.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="21">
   <si>
     <t>Оплачено</t>
   </si>
@@ -61,6 +61,24 @@
   </si>
   <si>
     <t>Оплата  членского взноса 2018/2019г.</t>
+  </si>
+  <si>
+    <t>оплата ЗОП за 2017/2018</t>
+  </si>
+  <si>
+    <t>оплата за аренду зем уч за 2017/2018</t>
+  </si>
+  <si>
+    <t>оплата за аренду зем уч за 2018/2019</t>
+  </si>
+  <si>
+    <t>Оплачен взнос 2019/2020 (с 01.05.2019 по 30.04.2020)</t>
+  </si>
+  <si>
+    <t>Оплачена арендная плата за зем уч за 2019</t>
+  </si>
+  <si>
+    <t>Оплачен членский взнос 2020/2021 (с 01.05.2020 по 30.04.2021)</t>
   </si>
 </sst>
 </file>
@@ -208,7 +226,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -242,10 +260,6 @@
     <xf numFmtId="2" fontId="1" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="1" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="14" fontId="1" fillId="6" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -280,6 +294,14 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="1" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -587,10 +609,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:D19"/>
+  <dimension ref="A1:D30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D24" sqref="D24"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="F31" sqref="F31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -604,10 +626,10 @@
   <sheetData>
     <row r="1" spans="1:4" ht="28.5" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="1:4" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="17" t="s">
+      <c r="A2" s="35" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="18"/>
+      <c r="B2" s="36"/>
       <c r="C2" s="2" t="s">
         <v>1</v>
       </c>
@@ -616,13 +638,13 @@
       </c>
     </row>
     <row r="3" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="19">
+      <c r="A3" s="17">
         <v>43221</v>
       </c>
-      <c r="B3" s="20" t="s">
+      <c r="B3" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="21">
+      <c r="C3" s="19">
         <v>10210.540000000001</v>
       </c>
       <c r="D3" s="6"/>
@@ -652,13 +674,13 @@
       <c r="D5" s="3"/>
     </row>
     <row r="6" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="27">
+      <c r="A6" s="25">
         <v>43221</v>
       </c>
-      <c r="B6" s="28" t="s">
+      <c r="B6" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="29">
+      <c r="C6" s="27">
         <v>11472.86</v>
       </c>
       <c r="D6" s="5"/>
@@ -676,14 +698,14 @@
       <c r="D7" s="5"/>
     </row>
     <row r="8" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="22">
+      <c r="A8" s="20">
         <v>43380</v>
       </c>
-      <c r="B8" s="23" t="s">
+      <c r="B8" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="C8" s="24"/>
-      <c r="D8" s="24">
+      <c r="C8" s="22"/>
+      <c r="D8" s="22">
         <v>2186.11</v>
       </c>
     </row>
@@ -760,61 +782,193 @@
       <c r="D14" s="16"/>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="25">
+      <c r="A15" s="23">
         <v>44470</v>
       </c>
-      <c r="B15" s="20" t="s">
+      <c r="B15" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="C15" s="26"/>
-      <c r="D15" s="26">
+      <c r="C15" s="24"/>
+      <c r="D15" s="24">
         <v>5757.69</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="25">
+      <c r="A16" s="23">
         <v>44490</v>
       </c>
-      <c r="B16" s="20" t="s">
+      <c r="B16" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="C16" s="26"/>
-      <c r="D16" s="26">
+      <c r="C16" s="24"/>
+      <c r="D16" s="24">
         <v>357.7</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="25">
+      <c r="A17" s="23">
         <v>44497</v>
       </c>
-      <c r="B17" s="20" t="s">
+      <c r="B17" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="C17" s="26"/>
-      <c r="D17" s="26">
+      <c r="C17" s="24"/>
+      <c r="D17" s="24">
         <v>1909.04</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="30">
+      <c r="A18" s="28">
         <v>44497</v>
       </c>
-      <c r="B18" s="31" t="s">
+      <c r="B18" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="C18" s="32"/>
-      <c r="D18" s="32">
+      <c r="C18" s="30"/>
+      <c r="D18" s="30">
         <v>3848.65</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C19" s="9">
-        <f>SUM(C3:C18)</f>
+      <c r="A19" s="28">
+        <v>44525</v>
+      </c>
+      <c r="B19" s="29" t="s">
+        <v>14</v>
+      </c>
+      <c r="C19" s="30"/>
+      <c r="D19" s="33">
+        <v>7624.21</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" s="34">
+        <v>44522</v>
+      </c>
+      <c r="B20" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="C20" s="11"/>
+      <c r="D20" s="11">
+        <v>57.7</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" s="31">
+        <v>44525</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C21" s="32"/>
+      <c r="D21" s="7">
+        <v>580.26</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" s="31">
+        <v>44525</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C22" s="32"/>
+      <c r="D22" s="7">
+        <v>570.08000000000004</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" s="31">
+        <v>44525</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C23" s="32"/>
+      <c r="D23" s="32">
+        <v>763.5</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" s="31">
+        <v>44525</v>
+      </c>
+      <c r="B24" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="C24" s="11"/>
+      <c r="D24" s="11">
+        <v>977.28</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" s="31">
+        <v>44525</v>
+      </c>
+      <c r="B25" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="C25" s="11"/>
+      <c r="D25" s="11">
+        <v>7936.41</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" s="31">
+        <v>44530</v>
+      </c>
+      <c r="B26" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="C26" s="11"/>
+      <c r="D26" s="11">
+        <v>3315.87</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" s="12">
+        <v>44530</v>
+      </c>
+      <c r="B27" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="C27" s="13"/>
+      <c r="D27" s="13">
+        <v>2441.8200000000002</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" s="12">
+        <v>44552</v>
+      </c>
+      <c r="B28" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="C28" s="13"/>
+      <c r="D28" s="13">
+        <v>0.09</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" s="12">
+        <v>44552</v>
+      </c>
+      <c r="B29" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="C29" s="13"/>
+      <c r="D29" s="13">
+        <v>57.7</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C30" s="9">
+        <f>SUM(C3:C27)</f>
         <v>63170.16</v>
       </c>
-      <c r="D19" s="9">
-        <f>SUM(D3:D18)</f>
-        <v>14059.19</v>
+      <c r="D30" s="9">
+        <f>SUM(D3:D27)</f>
+        <v>38326.32</v>
       </c>
     </row>
   </sheetData>
